--- a/form_reporting_templates/Form-4SF.xlsx
+++ b/form_reporting_templates/Form-4SF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131BC28E-1B06-4C20-8C80-ECC79CFA25C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE82C0C-3040-4FB9-A19A-AC49AC60C4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -108,12 +108,6 @@
     <t>Form</t>
   </si>
   <si>
-    <t>IOTC form 4-SF | metadata</t>
-  </si>
-  <si>
-    <t>IOTC form 4-SF | data</t>
-  </si>
-  <si>
     <t>No. fish</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>Fate of catch sampled</t>
   </si>
   <si>
-    <t>4-SF</t>
-  </si>
-  <si>
     <t>Type of data</t>
   </si>
   <si>
@@ -172,6 +163,15 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>IOTC Form 4SF | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 4SF | metadata</t>
+  </si>
+  <si>
+    <t>4SF</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1237,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -1261,14 +1261,14 @@
         <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1309,7 +1309,7 @@
       <c r="D8" s="58"/>
       <c r="E8" s="10"/>
       <c r="F8" s="58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="11"/>
@@ -1330,12 +1330,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1352,7 +1352,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="10"/>
@@ -1425,7 +1425,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="47" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="10"/>
@@ -1481,7 +1481,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G24" s="58"/>
       <c r="H24" s="11"/>
@@ -1489,7 +1489,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="10"/>
@@ -1505,7 +1505,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
       <c r="F26" s="47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="11"/>
@@ -1539,7 +1539,7 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="10"/>
@@ -1550,12 +1550,12 @@
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="10"/>
       <c r="F30" s="47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="11"/>
@@ -1563,14 +1563,14 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="11"/>
@@ -1636,7 +1636,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NbIHQyD101mzQIRNJh4uEfRV+JcoZKX7jHmqun+Q0sHtmVMCQoK4naQJeJPIx4PyuTHMMLEA6ObrRnzKa55XTA==" saltValue="Yks/QdRHNlinrBmCcTqk1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O6ZAk44uGCw07T2Kzkc0Fh3vsHp6T+y+/3yu4+YnxYiV2lZ/g8O9KyhYTiBmCleB5qTyXFgNKOtC0l8qe4wM+g==" saltValue="HC/AE8+X9yrQLoHx8tJ0fw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="70"/>
       <c r="F4" s="68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="69"/>
       <c r="H4" s="70"/>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>12</v>
@@ -1751,10 +1751,10 @@
         <v>21</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
       <c r="H55" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qYRk5oQJxnACveKBQXkw1NY14p0VrhCVL1wDGRfVd7HQewAa5ZVSBic3BvqeJfVdkTKtK1vPvK2XsEWOxaDAdw==" saltValue="/6IxzN7nfqYw7HUezpY34w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qbv+hC/1gTjJJ8DTD8trZ6wTNCGzfbL/vUhMNexvAJFVhRLyPKShTRSKM+pYfC7pQWY9WNGw3JH6dFu1hdF25g==" saltValue="QvalSN+giqBaLSmFJJvHzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:H3"/>

--- a/form_reporting_templates/Form-4SF.xlsx
+++ b/form_reporting_templates/Form-4SF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE82C0C-3040-4FB9-A19A-AC49AC60C4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E10E0-86CF-4C8D-98AC-A41B40491EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>4SF</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1237,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -1258,17 +1258,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1284,7 +1284,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1309,7 +1309,7 @@
       <c r="D8" s="58"/>
       <c r="E8" s="10"/>
       <c r="F8" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="11"/>
@@ -1330,12 +1330,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1352,7 +1352,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="10"/>
@@ -1363,7 +1363,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="10"/>
@@ -1412,12 +1412,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="10"/>
       <c r="F18" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="11"/>
@@ -1425,7 +1425,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="10"/>
@@ -1436,12 +1436,12 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="47" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="10"/>
       <c r="F20" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="11"/>
@@ -1467,7 +1467,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="10"/>
@@ -1481,7 +1481,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="58"/>
       <c r="H24" s="11"/>
@@ -1489,12 +1489,12 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="10"/>
       <c r="F25" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="11"/>
@@ -1505,7 +1505,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
       <c r="F26" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="11"/>
@@ -1513,12 +1513,12 @@
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="10"/>
       <c r="F27" s="47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="11"/>
@@ -1526,12 +1526,12 @@
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="10"/>
       <c r="F28" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="11"/>
@@ -1539,7 +1539,7 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="10"/>
@@ -1550,12 +1550,12 @@
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="10"/>
       <c r="F30" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="11"/>
@@ -1563,14 +1563,14 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="11"/>
@@ -1596,7 +1596,7 @@
     <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="10"/>
@@ -1636,7 +1636,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O6ZAk44uGCw07T2Kzkc0Fh3vsHp6T+y+/3yu4+YnxYiV2lZ/g8O9KyhYTiBmCleB5qTyXFgNKOtC0l8qe4wM+g==" saltValue="HC/AE8+X9yrQLoHx8tJ0fw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jXpyYqRArkJXrgAlkjfNNEuB0uTb3pmspw08KvPpI0kNZzBovU/eEn/yJaTxC03yia1Spn8HgAQo5kXU934a7A==" saltValue="2MD9dtlVejrs/bkmeKifXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -1645,13 +1645,13 @@
     <mergeCell ref="C36:G36"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 C25 C27:C30 F25:F27 D23 C19:C20 F18 F20" xr:uid="{D97DB983-6157-43A9-ADF0-B303F23C5B2A}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 C25 C27:C30 F25:F27 D23 F20 F18 C19:C20" xr:uid="{D97DB983-6157-43A9-ADF0-B303F23C5B2A}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="countries" display="Reporting country" xr:uid="{874BDFDD-9442-4F43-BBE3-A01911171970}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{1ED04876-0842-4F36-876E-A7DB35571C7C}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{1ED04876-0842-4F36-876E-A7DB35571C7C}"/>
     <hyperlink ref="F18" r:id="rId3" location="fisheries" xr:uid="{08B044D0-F33A-4C27-92B1-1FBE141C0AD0}"/>
     <hyperlink ref="F20" r:id="rId4" location="species" xr:uid="{331D4B50-AFB7-41CE-BEFF-B412EE64BEE9}"/>
     <hyperlink ref="C25" r:id="rId5" location="types" xr:uid="{3E799C58-326C-4CFE-A76A-FC897A811AF1}"/>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -1723,38 +1723,38 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="70"/>
       <c r="F4" s="68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="69"/>
       <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="D5" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">

--- a/form_reporting_templates/Form-4SF.xlsx
+++ b/form_reporting_templates/Form-4SF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E10E0-86CF-4C8D-98AC-A41B40491EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86BC897-6133-463F-80E3-891201158A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -1221,7 +1221,7 @@
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1636,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jXpyYqRArkJXrgAlkjfNNEuB0uTb3pmspw08KvPpI0kNZzBovU/eEn/yJaTxC03yia1Spn8HgAQo5kXU934a7A==" saltValue="2MD9dtlVejrs/bkmeKifXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UUXNQ8vsdzNUIs+HaWPaDUqw/Kswl1wqAJsFpUFSxyXfDILbNe+U3TAmzonmZFnL1DEiI+gswJFo6I7srQ2L4g==" saltValue="GAz0fa7kugT9Bx2qPMEH9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -1644,8 +1644,11 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="C36:G36"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 C25 C27:C30 F25:F27 D23 F20 F18 C19:C20" xr:uid="{D97DB983-6157-43A9-ADF0-B303F23C5B2A}">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 C25 C27:C30 C19:C20 D23 F20 F18 F25 F26" xr:uid="{D97DB983-6157-43A9-ADF0-B303F23C5B2A}">
+      <formula1>"&lt;0&gt;0"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27" xr:uid="{75420633-B41C-4713-8CCE-F6E3F5B1EBA7}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1661,7 +1664,7 @@
     <hyperlink ref="C29" r:id="rId9" location="raisings" xr:uid="{70178D33-A777-4FBB-A6A2-D8B94CBA336D}"/>
     <hyperlink ref="C27" r:id="rId10" location="sourcesSF" xr:uid="{71D93F2E-1131-431B-8B9D-FE752AAABCD2}"/>
     <hyperlink ref="C28" r:id="rId11" location="processingsSF" xr:uid="{7137B69B-F308-4CA2-9EFD-570A30893393}"/>
-    <hyperlink ref="F27" r:id="rId12" location="fates" display="Fate of catch sampled" xr:uid="{7A228202-3AA5-42C7-8D30-08152078D86D}"/>
+    <hyperlink ref="F27" r:id="rId12" location="allMeasurementTools" xr:uid="{7A228202-3AA5-42C7-8D30-08152078D86D}"/>
     <hyperlink ref="F26" r:id="rId13" location="allMeasurementTypes" xr:uid="{12743A08-7D0D-4FD3-801E-17FDAB969A4D}"/>
     <hyperlink ref="F31" r:id="rId14" location="fates" xr:uid="{7F16F4B7-0EBD-4CB5-A51B-3B30C421ED01}"/>
   </hyperlinks>

--- a/form_reporting_templates/Form-4SF.xlsx
+++ b/form_reporting_templates/Form-4SF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86BC897-6133-463F-80E3-891201158A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F114805D-FD8F-45A7-A002-145A8CD2518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m5fYTWOuvn9po4Wc9Ec8Ocp8Bu22/cBH+lIv9JvSOHQNR2aFkFacb9ggH1N1LZxz0/bSakIV0iV7tumFfcGN2A==" workbookSaltValue="9LfHRllNJNkuXDGmAlc+/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Focal point</t>
   </si>
@@ -54,18 +54,9 @@
     <t>Reporting year</t>
   </si>
   <si>
-    <t>Data processing</t>
-  </si>
-  <si>
-    <t>Data source</t>
-  </si>
-  <si>
     <t>Fishery</t>
   </si>
   <si>
-    <t>Data specifications</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -90,18 +81,15 @@
     <t>Species</t>
   </si>
   <si>
+    <t>Measurement</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
     <t>Tool</t>
   </si>
   <si>
-    <t>Size interval</t>
-  </si>
-  <si>
-    <t>Size class (low)</t>
-  </si>
-  <si>
     <t>Form</t>
   </si>
   <si>
@@ -111,54 +99,60 @@
     <t>No. samples</t>
   </si>
   <si>
-    <t>Coverage type</t>
-  </si>
-  <si>
-    <t>Coverage value</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
-    <t>Samples / fish by size class</t>
+    <t>Original data</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Fate</t>
+  </si>
+  <si>
+    <t>Size class (hi)</t>
+  </si>
+  <si>
+    <t>Size class (lo)</t>
+  </si>
+  <si>
+    <t>Number of samples / fish by size class</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>Main stratum</t>
   </si>
   <si>
-    <t>Fate of catch sampled</t>
-  </si>
-  <si>
-    <t>Type of data</t>
-  </si>
-  <si>
-    <t>Data raising</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
     <t>Type of fate</t>
   </si>
   <si>
-    <t>Measurements</t>
+    <t>Raising</t>
   </si>
   <si>
     <t>Reporting entity</t>
   </si>
   <si>
+    <t>Organisation</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
     <t>Finalisation date</t>
   </si>
   <si>
-    <t>Organisation</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
@@ -168,10 +162,10 @@
     <t>IOTC Form 4SF | metadata</t>
   </si>
   <si>
+    <t>Flag state</t>
+  </si>
+  <si>
     <t>4SF</t>
-  </si>
-  <si>
-    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -292,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -472,6 +466,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -511,19 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -541,19 +567,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -620,7 +633,74 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -633,9 +713,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -644,44 +722,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -691,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -726,19 +774,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -746,6 +794,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -754,35 +806,38 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -790,67 +845,86 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -886,13 +960,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
-  <dimension ref="B1:H38"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,39 +1319,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="B2" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1284,7 +1367,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1303,15 +1386,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="58"/>
+      <c r="F8" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="64"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1330,12 +1413,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1352,7 +1435,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="10"/>
@@ -1363,7 +1446,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="10"/>
@@ -1414,20 +1497,18 @@
       <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="34"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="34"/>
+      <c r="C19" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="37"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1435,15 +1516,13 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="34"/>
+      <c r="C20" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="37"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="34"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1457,7 +1536,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
-      <c r="C22" s="16"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -1467,217 +1546,72 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="58"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="34"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="11"/>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="9"/>
-      <c r="C34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UUXNQ8vsdzNUIs+HaWPaDUqw/Kswl1wqAJsFpUFSxyXfDILbNe+U3TAmzonmZFnL1DEiI+gswJFo6I7srQ2L4g==" saltValue="GAz0fa7kugT9Bx2qPMEH9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="5">
+  <sheetProtection algorithmName="SHA-512" hashValue="9jDrNCvo9XcsQl1tv9Dz82lBwJWT11u83JqO1rI4OXCt+FM+gDf1WIIQJ0zZU9PIJiwUBK51drWcVf4jZ4hYzw==" saltValue="a3N6gPiNbM8aV7743tF2RA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="4">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B2:H3"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 C25 C27:C30 C19:C20 D23 F20 F18 F25 F26" xr:uid="{D97DB983-6157-43A9-ADF0-B303F23C5B2A}">
-      <formula1>"&lt;0&gt;0"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27" xr:uid="{75420633-B41C-4713-8CCE-F6E3F5B1EBA7}">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C20" xr:uid="{434211FD-D334-4971-B4B6-341497A832BA}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" location="countries" display="Reporting country" xr:uid="{874BDFDD-9442-4F43-BBE3-A01911171970}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{1ED04876-0842-4F36-876E-A7DB35571C7C}"/>
-    <hyperlink ref="F18" r:id="rId3" location="fisheries" xr:uid="{08B044D0-F33A-4C27-92B1-1FBE141C0AD0}"/>
-    <hyperlink ref="F20" r:id="rId4" location="species" xr:uid="{331D4B50-AFB7-41CE-BEFF-B412EE64BEE9}"/>
-    <hyperlink ref="C25" r:id="rId5" location="types" xr:uid="{3E799C58-326C-4CFE-A76A-FC897A811AF1}"/>
-    <hyperlink ref="C30" r:id="rId6" location="coverageTypes" xr:uid="{63BCD347-81CA-49E2-9D0A-0904F18F0407}"/>
-    <hyperlink ref="F25" r:id="rId7" location="typesOfMeasurement" xr:uid="{6A07B49D-D8D1-4E04-9516-DB9A19992696}"/>
-    <hyperlink ref="F30" r:id="rId8" location="typesOfFate" xr:uid="{77B35366-2649-46DD-84FB-2ADE1215637D}"/>
-    <hyperlink ref="C29" r:id="rId9" location="raisings" xr:uid="{70178D33-A777-4FBB-A6A2-D8B94CBA336D}"/>
-    <hyperlink ref="C27" r:id="rId10" location="sourcesSF" xr:uid="{71D93F2E-1131-431B-8B9D-FE752AAABCD2}"/>
-    <hyperlink ref="C28" r:id="rId11" location="processingsSF" xr:uid="{7137B69B-F308-4CA2-9EFD-570A30893393}"/>
-    <hyperlink ref="F27" r:id="rId12" location="allMeasurementTools" xr:uid="{7A228202-3AA5-42C7-8D30-08152078D86D}"/>
-    <hyperlink ref="F26" r:id="rId13" location="allMeasurementTypes" xr:uid="{12743A08-7D0D-4FD3-801E-17FDAB969A4D}"/>
-    <hyperlink ref="F31" r:id="rId14" location="fates" xr:uid="{7F16F4B7-0EBD-4CB5-A51B-3B30C421ED01}"/>
+    <hyperlink ref="C19" r:id="rId1" location="countries" display="Reporting country" xr:uid="{C51AA9AD-C9C1-4D5C-8A31-62AF23609D22}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{65B5CFA2-BB71-4B2D-9ADA-0020793928ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
-  <dimension ref="B1:H55"/>
+  <dimension ref="B1:V54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -1687,552 +1621,590 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="41" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="57" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="29" customWidth="1"/>
+    <col min="4" max="8" width="11.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="27" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="29" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="27" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="27" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="43" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="32" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="62" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="63" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="41" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+    <row r="1" spans="2:22" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1" s="33"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+    </row>
+    <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="67"/>
+    </row>
+    <row r="3" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="70"/>
+    </row>
+    <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="79"/>
+      <c r="P4" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="68" t="s">
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="76"/>
+    </row>
+    <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="T5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="U5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="34"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="33"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="33"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
       <c r="E33" s="30"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="33"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
       <c r="E34" s="30"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="33"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="33"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
       <c r="E36" s="30"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="33"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
       <c r="E37" s="30"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="33"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="33"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="33"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="33"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
       <c r="E42" s="30"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="33"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="33"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
       <c r="E44" s="30"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="33"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="33"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
       <c r="E46" s="30"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="33"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
       <c r="E47" s="30"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="33"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="27"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
       <c r="E48" s="30"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="33"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
       <c r="E49" s="30"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="33"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="33"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="33"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="33"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="33"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="27"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
       <c r="E54" s="30"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="33"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="33"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qbv+hC/1gTjJJ8DTD8trZ6wTNCGzfbL/vUhMNexvAJFVhRLyPKShTRSKM+pYfC7pQWY9WNGw3JH6dFu1hdF25g==" saltValue="QvalSN+giqBaLSmFJJvHzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="F4:H4"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ydMl0+zL72FqkPuVqI80AKeiwLcMX+mF2Sm14REsDNI4sDUGtl0x3xyvi/e9pHukMyrHTSCNZX4ZA6RG9E1vTQ==" saltValue="PcIti01v+KO+OP19BnuLWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B2:V3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:V4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:H1048576">
+  <conditionalFormatting sqref="B6:V1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>B6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:E5" xr:uid="{FEE98675-F13D-4A7E-BF03-FB974D21EE1E}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:R5 C5:N5" xr:uid="{4C45E2BA-9558-4E84-8F42-1141E2C9D911}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="IOTCgridsCESF" xr:uid="{125A629B-AC9A-4EC8-8C6C-1BBF806B0F75}"/>
-    <hyperlink ref="D5" r:id="rId2" location="sex" xr:uid="{C06E876E-AE58-4AB1-B809-2BB868CB6303}"/>
-    <hyperlink ref="E5" r:id="rId3" location="estimations" xr:uid="{4F291372-D6AE-47E5-861F-6BC3359D6176}"/>
+    <hyperlink ref="C5" r:id="rId1" location="fisheries" xr:uid="{954AB094-A1D9-4925-8C31-207E67FF24D5}"/>
+    <hyperlink ref="D5" r:id="rId2" location="IOTCgridsCESF" xr:uid="{032A5512-6B38-46CE-BD56-B59EBC3BCCDF}"/>
+    <hyperlink ref="E5" r:id="rId3" location="species" xr:uid="{4D726A61-795D-46F0-ACB8-3D1BAB4C51F3}"/>
+    <hyperlink ref="F5" r:id="rId4" location="sex" xr:uid="{78E2053D-65A5-45A2-ABF8-4B41E2375EF9}"/>
+    <hyperlink ref="H5" r:id="rId5" location="fates" xr:uid="{9D96516A-8146-4282-9C78-FFF2F96C2291}"/>
+    <hyperlink ref="I5" r:id="rId6" location="estimations" xr:uid="{6EC0EA68-17C6-463E-8BAF-7E9BA0ADA27D}"/>
+    <hyperlink ref="J5" r:id="rId7" location="types" xr:uid="{8FDCC522-8D1F-483B-B1E5-D3125A91632B}"/>
+    <hyperlink ref="K5" r:id="rId8" location="sourcesSF" xr:uid="{993C9C74-7244-40BB-87A8-08DAE41213D8}"/>
+    <hyperlink ref="L5" r:id="rId9" location="processingsSF" xr:uid="{35B5166F-E3C1-46E8-931B-BD1981FFF8F7}"/>
+    <hyperlink ref="N5" r:id="rId10" location="coverageTypes" xr:uid="{F11F1B57-E27C-4F94-A702-C08141DA5773}"/>
+    <hyperlink ref="P5" r:id="rId11" location="typesOfMeasurement" xr:uid="{D60C1073-BBFA-497A-9C50-552D5BC835BA}"/>
+    <hyperlink ref="R5" r:id="rId12" location="allMeasurementTools" xr:uid="{EF06CD42-9DFA-4505-88B5-5B9010603953}"/>
+    <hyperlink ref="M5" r:id="rId13" location="raisings" display="Data raising" xr:uid="{3CEA48D7-75C9-4AA6-90EA-2DD2E59C6F57}"/>
+    <hyperlink ref="G5" r:id="rId14" location="typesOfFate" xr:uid="{2B30D77A-63EF-477E-86B9-BDEC5D028AC4}"/>
+    <hyperlink ref="Q5" r:id="rId15" location="allMeasurements" xr:uid="{1BC757B6-1D8E-4E4E-8A6D-47681AF861EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/form_reporting_templates/Form-4SF.xlsx
+++ b/form_reporting_templates/Form-4SF.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F114805D-FD8F-45A7-A002-145A8CD2518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9223005F-8731-4FBE-913D-AE0A50BBFC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m5fYTWOuvn9po4Wc9Ec8Ocp8Bu22/cBH+lIv9JvSOHQNR2aFkFacb9ggH1N1LZxz0/bSakIV0iV7tumFfcGN2A==" workbookSaltValue="9LfHRllNJNkuXDGmAlc+/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1768,7 +1768,7 @@
       <c r="I5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="57" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="54" t="s">
@@ -2168,7 +2168,7 @@
       <c r="H54" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ydMl0+zL72FqkPuVqI80AKeiwLcMX+mF2Sm14REsDNI4sDUGtl0x3xyvi/e9pHukMyrHTSCNZX4ZA6RG9E1vTQ==" saltValue="PcIti01v+KO+OP19BnuLWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nUvPmvl7XyqQA1qRu3fD8ygl6wy2M9niRg6WM2/kvJsoe/ZsSCLdB05RTBsuGlJqmY8A8rE/WEn01K37asqU+Q==" saltValue="PswZUF4Mz2YGKgXELQ36RA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B2:V3"/>

--- a/form_reporting_templates/Form-4SF.xlsx
+++ b/form_reporting_templates/Form-4SF.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9223005F-8731-4FBE-913D-AE0A50BBFC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426DC052-FFB2-42A3-BD2B-70145B58D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m5fYTWOuvn9po4Wc9Ec8Ocp8Bu22/cBH+lIv9JvSOHQNR2aFkFacb9ggH1N1LZxz0/bSakIV0iV7tumFfcGN2A==" workbookSaltValue="9LfHRllNJNkuXDGmAlc+/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Main stratum</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>4SF</t>
+  </si>
+  <si>
+    <t>Main elements</t>
   </si>
 </sst>
 </file>
@@ -864,10 +864,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,6 +973,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,24 +1319,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="B2" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1344,14 +1344,14 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1386,15 +1386,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="64"/>
+      <c r="F8" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="63"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1413,12 +1413,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1435,7 +1435,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="10"/>
@@ -1506,7 +1506,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="10"/>
@@ -1517,7 +1517,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="10"/>
@@ -1565,11 +1565,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1623,9 +1623,10 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="27" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="29" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="27" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="28" customWidth="1"/>
     <col min="11" max="12" width="11.42578125" style="29" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="32" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="27" customWidth="1"/>
@@ -1633,8 +1634,8 @@
     <col min="16" max="16" width="11.42578125" style="27" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" style="43" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="62" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="63" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="61" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="62" customWidth="1"/>
     <col min="21" max="21" width="11.85546875" style="41" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" style="35" customWidth="1"/>
   </cols>
@@ -1663,122 +1664,122 @@
       <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="67"/>
+      <c r="B2" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="66"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="70"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="69"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
+      <c r="B4" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="74" t="s">
+      <c r="I4" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="78" t="s">
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="79"/>
-      <c r="P4" s="78" t="s">
+      <c r="O4" s="78"/>
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="74" t="s">
+      <c r="Q4" s="74"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="76"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="75"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="53" t="s">
+      <c r="G5" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="45" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="53" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>15</v>
@@ -1786,25 +1787,25 @@
       <c r="O5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="58" t="s">
-        <v>31</v>
+      <c r="Q5" s="57" t="s">
+        <v>30</v>
       </c>
       <c r="R5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="56" t="s">
+      <c r="T5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="48" t="s">
+      <c r="U5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="49" t="s">
+      <c r="V5" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1815,19 +1816,19 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="23"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="38"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="59"/>
+      <c r="O6" s="58"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="42"/>
       <c r="R6" s="38"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="61"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="60"/>
       <c r="U6" s="40"/>
       <c r="V6" s="34"/>
     </row>
@@ -1836,346 +1837,298 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C8" s="28"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C9" s="28"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C10" s="28"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C11" s="28"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C12" s="28"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C13" s="28"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C14" s="28"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C15" s="28"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C16" s="28"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="28"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="28"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="28"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="28"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="28"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="28"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="28"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="28"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="28"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="28"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="28"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="28"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="28"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="28"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="28"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="28"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="28"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="28"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="28"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="28"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="28"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="28"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="28"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="28"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="28"/>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="28"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="28"/>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" s="28"/>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" s="28"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" s="28"/>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" s="28"/>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48" s="28"/>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="28"/>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="28"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="28"/>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="28"/>
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="28"/>
       <c r="E53" s="30"/>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="28"/>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nUvPmvl7XyqQA1qRu3fD8ygl6wy2M9niRg6WM2/kvJsoe/ZsSCLdB05RTBsuGlJqmY8A8rE/WEn01K37asqU+Q==" saltValue="PswZUF4Mz2YGKgXELQ36RA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RVoUsJtvJ2v89wrqEIh45oLu2v7VHd/Nzapknx4ykqGViBy5oJaDAA/Rz8eukCG75k/wlaSbpDUeCoNZYKqh1A==" saltValue="fme9t4sLmLUYU8rTJvtAZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
-    <mergeCell ref="B4:I4"/>
     <mergeCell ref="B2:V3"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="J4:M4"/>
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:V1048576">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/form_reporting_templates/Form-4SF.xlsx
+++ b/form_reporting_templates/Form-4SF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426DC052-FFB2-42A3-BD2B-70145B58D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D14D6A3-B875-48DA-9AA2-AB46F6FB3742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m5fYTWOuvn9po4Wc9Ec8Ocp8Bu22/cBH+lIv9JvSOHQNR2aFkFacb9ggH1N1LZxz0/bSakIV0iV7tumFfcGN2A==" workbookSaltValue="9LfHRllNJNkuXDGmAlc+/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -173,8 +173,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -822,10 +822,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -923,6 +919,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -956,15 +956,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -974,8 +965,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1005,9 +1005,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1045,7 +1045,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1151,7 +1151,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1293,7 +1293,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1437,7 +1437,7 @@
       <c r="C12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1448,7 +1448,7 @@
       <c r="C13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1497,7 +1497,7 @@
       <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1586,7 +1586,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9jDrNCvo9XcsQl1tv9Dz82lBwJWT11u83JqO1rI4OXCt+FM+gDf1WIIQJ0zZU9PIJiwUBK51drWcVf4jZ4hYzw==" saltValue="a3N6gPiNbM8aV7743tF2RA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MJMH2DXWuUrwM+6v1ZnQZ1dv3LbJhV1d9qdxOqYR2OSoX7Z9SzOf+7uqKSJkZX7/PURcHwRxeR+agPPlCOXWjg==" saltValue="JZAWBuBQRB03BNik8XoTXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -1632,11 +1632,11 @@
     <col min="14" max="14" width="11.42578125" style="27" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" style="35" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="27" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="42" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="61" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="62" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="41" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="60" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="61" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="40" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1701,111 +1701,111 @@
       <c r="K3" s="68"/>
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
       <c r="T3" s="68"/>
       <c r="U3" s="68"/>
       <c r="V3" s="69"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="77" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="78"/>
-      <c r="P4" s="77" t="s">
+      <c r="O4" s="75"/>
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="73" t="s">
+      <c r="Q4" s="76"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="75"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="78"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="57" t="s">
+      <c r="Q5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="R5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="T5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="48" t="s">
+      <c r="V5" s="47" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1816,20 +1816,20 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="38"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="23"/>
       <c r="J6" s="24"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
-      <c r="M6" s="38"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="58"/>
+      <c r="O6" s="57"/>
       <c r="P6" s="23"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="40"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="39"/>
       <c r="V6" s="34"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">

--- a/form_reporting_templates/Form-4SF.xlsx
+++ b/form_reporting_templates/Form-4SF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D14D6A3-B875-48DA-9AA2-AB46F6FB3742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D7BCAE-9023-4DDA-997A-C1D8914D2570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m5fYTWOuvn9po4Wc9Ec8Ocp8Bu22/cBH+lIv9JvSOHQNR2aFkFacb9ggH1N1LZxz0/bSakIV0iV7tumFfcGN2A==" workbookSaltValue="9LfHRllNJNkuXDGmAlc+/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
-    <t>Focal point</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Main elements</t>
+  </si>
+  <si>
+    <t>Liaison officer</t>
   </si>
 </sst>
 </file>
@@ -173,8 +173,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -742,10 +742,10 @@
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -923,6 +923,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -973,10 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,39 +1319,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="B2" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1367,7 +1367,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1386,26 +1386,26 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="63"/>
+      <c r="C8" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="64"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="63"/>
+      <c r="F8" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="64"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10"/>
       <c r="F9" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="11"/>
@@ -1413,12 +1413,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1435,9 +1435,9 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="79"/>
+        <v>35</v>
+      </c>
+      <c r="D12" s="63"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1446,9 +1446,9 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="79"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="63"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1475,7 +1475,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1495,7 +1495,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="10"/>
@@ -1506,7 +1506,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="10"/>
@@ -1517,7 +1517,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="10"/>
@@ -1546,7 +1546,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
@@ -1565,11 +1565,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1586,7 +1586,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MJMH2DXWuUrwM+6v1ZnQZ1dv3LbJhV1d9qdxOqYR2OSoX7Z9SzOf+7uqKSJkZX7/PURcHwRxeR+agPPlCOXWjg==" saltValue="JZAWBuBQRB03BNik8XoTXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5JcUl8/Jwxf3yzhWhUVp4us6PC27lfFjQMH7vjwkU6RoRplN48512ZTVMSpRXEm+c3+2FuKtbnpFL816lPEmag==" saltValue="/J6vliKyyh+IBl1270DKPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -1664,149 +1664,149 @@
       <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="66"/>
+      <c r="B2" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="67"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="69"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="70"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="78"/>
+      <c r="B4" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="79"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="E5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="51" t="s">
+      <c r="J5" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="N5" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="54" t="s">
-        <v>26</v>
-      </c>
       <c r="U5" s="46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V5" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">

--- a/form_reporting_templates/Form-4SF.xlsx
+++ b/form_reporting_templates/Form-4SF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\Dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D7BCAE-9023-4DDA-997A-C1D8914D2570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0EAB7A-6948-442E-B848-CB12F485B86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m5fYTWOuvn9po4Wc9Ec8Ocp8Bu22/cBH+lIv9JvSOHQNR2aFkFacb9ggH1N1LZxz0/bSakIV0iV7tumFfcGN2A==" workbookSaltValue="9LfHRllNJNkuXDGmAlc+/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -176,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,16 +243,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -739,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -869,36 +859,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -919,10 +885,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -977,6 +939,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,24 +1317,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1386,15 +1384,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1435,7 @@
       <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1448,7 +1446,7 @@
       <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1565,11 +1563,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1615,7 +1613,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1621,8 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="27" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="29" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" style="29" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="29" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="32" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="27" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="28" customWidth="1"/>
@@ -1633,10 +1632,10 @@
     <col min="15" max="15" width="11.42578125" style="35" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="27" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" style="42" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="60" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="61" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="40" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="32" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="54" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="55" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="40" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1664,142 +1663,142 @@
       <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="67"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="70"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="77" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="75" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="75" t="s">
+      <c r="O4" s="69"/>
+      <c r="P4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="78" t="s">
+      <c r="Q4" s="70"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="79"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="72"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="73" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="81" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="74" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="56" t="s">
+      <c r="Q5" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="T5" s="50" t="s">
         <v>25</v>
       </c>
       <c r="U5" s="46" t="s">
@@ -1823,12 +1822,12 @@
       <c r="L6" s="25"/>
       <c r="M6" s="37"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="57"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="41"/>
       <c r="R6" s="37"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="59"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="53"/>
       <c r="U6" s="39"/>
       <c r="V6" s="34"/>
     </row>
@@ -2121,7 +2120,7 @@
       <c r="G54" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RVoUsJtvJ2v89wrqEIh45oLu2v7VHd/Nzapknx4ykqGViBy5oJaDAA/Rz8eukCG75k/wlaSbpDUeCoNZYKqh1A==" saltValue="fme9t4sLmLUYU8rTJvtAZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KMK5ecTmrtrIxkcarJYuKOFPHlN9xHxWs2ZuKU2uLZuLbnJ78+BaEwYMP7CrciaYDdnFaRrnIB8Wto7N8821Rw==" saltValue="8zStwuvESBnQwIw7Ut4JBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:V3"/>
     <mergeCell ref="N4:O4"/>
@@ -2153,7 +2152,7 @@
     <hyperlink ref="N5" r:id="rId10" location="coverageTypes" xr:uid="{F11F1B57-E27C-4F94-A702-C08141DA5773}"/>
     <hyperlink ref="P5" r:id="rId11" location="typesOfMeasurement" xr:uid="{D60C1073-BBFA-497A-9C50-552D5BC835BA}"/>
     <hyperlink ref="R5" r:id="rId12" location="allMeasurementTools" xr:uid="{EF06CD42-9DFA-4505-88B5-5B9010603953}"/>
-    <hyperlink ref="M5" r:id="rId13" location="raisings" display="Data raising" xr:uid="{3CEA48D7-75C9-4AA6-90EA-2DD2E59C6F57}"/>
+    <hyperlink ref="M5" r:id="rId13" location="raisings" xr:uid="{3CEA48D7-75C9-4AA6-90EA-2DD2E59C6F57}"/>
     <hyperlink ref="G5" r:id="rId14" location="typesOfFate" xr:uid="{2B30D77A-63EF-477E-86B9-BDEC5D028AC4}"/>
     <hyperlink ref="Q5" r:id="rId15" location="allMeasurements" xr:uid="{1BC757B6-1D8E-4E4E-8A6D-47681AF861EB}"/>
   </hyperlinks>

--- a/form_reporting_templates/Form-4SF.xlsx
+++ b/form_reporting_templates/Form-4SF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\Dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data_dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0EAB7A-6948-442E-B848-CB12F485B86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9E271-8F95-4D78-BA7F-89AD721B7A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m5fYTWOuvn9po4Wc9Ec8Ocp8Bu22/cBH+lIv9JvSOHQNR2aFkFacb9ggH1N1LZxz0/bSakIV0iV7tumFfcGN2A==" workbookSaltValue="9LfHRllNJNkuXDGmAlc+/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -176,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +243,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -729,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -889,6 +899,10 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -940,39 +954,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1317,24 +1323,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1384,15 +1390,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,11 +1569,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1613,7 +1619,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,136 +1669,136 @@
       <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="70" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="68" t="s">
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="68" t="s">
+      <c r="O4" s="70"/>
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="71" t="s">
+      <c r="Q4" s="71"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="72"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="73"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="77" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="79" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="44" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="80" t="s">
+      <c r="Q5" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="75" t="s">
+      <c r="R5" s="45" t="s">
         <v>15</v>
       </c>
       <c r="S5" s="49" t="s">
@@ -2120,7 +2126,7 @@
       <c r="G54" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KMK5ecTmrtrIxkcarJYuKOFPHlN9xHxWs2ZuKU2uLZuLbnJ78+BaEwYMP7CrciaYDdnFaRrnIB8Wto7N8821Rw==" saltValue="8zStwuvESBnQwIw7Ut4JBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/Uf+GAyJAAU3QdWDHwPjMhieDFQd2CsZ0UWRT2h5Jv4aBiqpCWF3aEn0m00nonWqCU7yhydrDTGnT1YYhdrjpA==" saltValue="xnmTTqcaiDcbClstIi0nfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:V3"/>
     <mergeCell ref="N4:O4"/>
@@ -2142,7 +2148,7 @@
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" location="fisheries" xr:uid="{954AB094-A1D9-4925-8C31-207E67FF24D5}"/>
     <hyperlink ref="D5" r:id="rId2" location="IOTCgridsCESF" xr:uid="{032A5512-6B38-46CE-BD56-B59EBC3BCCDF}"/>
-    <hyperlink ref="E5" r:id="rId3" location="species" xr:uid="{4D726A61-795D-46F0-ACB8-3D1BAB4C51F3}"/>
+    <hyperlink ref="E5" r:id="rId3" location="allSpecies" xr:uid="{4D726A61-795D-46F0-ACB8-3D1BAB4C51F3}"/>
     <hyperlink ref="F5" r:id="rId4" location="sex" xr:uid="{78E2053D-65A5-45A2-ABF8-4B41E2375EF9}"/>
     <hyperlink ref="H5" r:id="rId5" location="fates" xr:uid="{9D96516A-8146-4282-9C78-FFF2F96C2291}"/>
     <hyperlink ref="I5" r:id="rId6" location="estimations" xr:uid="{6EC0EA68-17C6-463E-8BAF-7E9BA0ADA27D}"/>
